--- a/Escenarios Climáticos MMA/0 Especies/Tablas_Excel_Especies/Lista_Control_Especies.xlsx
+++ b/Escenarios Climáticos MMA/0 Especies/Tablas_Excel_Especies/Lista_Control_Especies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trabajado\Data_I\Data_Especies\0 Especies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Escenarios Climáticos MMA\0 Especies\Tablas_Excel_Especies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F689EE62-295E-465D-93F5-6411B94D6780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B124741A-6980-4F92-84FC-A0DA52E3E89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7214F2D9-83C7-4681-A224-ECD16B68D954}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{7214F2D9-83C7-4681-A224-ECD16B68D954}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -6649,14 +6649,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C887F610-B103-447C-BC1B-5C09B473CE3C}">
   <dimension ref="A1:G551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A551"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="0.33203125" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
